--- a/imalat.xlsx
+++ b/imalat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tutku.ozkal\Desktop\PASHA\ORNEK-CALISMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tutku.ozkal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4A6C8-F0F7-494F-8971-2D52B095F336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4AC3A-AF5C-48AF-A467-B20DC39521F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,19 +49,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -97,17 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -116,6 +101,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,28 +413,28 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -455,7 +443,7 @@
         <v>45296</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
